--- a/ITWebService/DutyInfo/瑞鑫时代大厦/瑞鑫时代大厦duty.xlsx
+++ b/ITWebService/DutyInfo/瑞鑫时代大厦/瑞鑫时代大厦duty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fursion/DutyInfo/瑞鑫时代大厦/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fursion/Projects/ITWebService/ITWebService/DutyInfo/瑞鑫时代大厦/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CCA11B-B241-F44C-8077-EA40F63A27A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F613CE-FB09-7E44-A6A4-B2D52DD35F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3880" yWindow="9060" windowWidth="38100" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="瑞鑫时代大厦班表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="20">
   <si>
     <t>休</t>
   </si>
@@ -40,9 +40,6 @@
     <t>官博</t>
   </si>
   <si>
-    <t>中(法)</t>
-  </si>
-  <si>
     <t>蒲成</t>
   </si>
   <si>
@@ -58,6 +55,19 @@
     <t>牟海涛</t>
   </si>
   <si>
+    <t>2022年7月份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞鑫时代大厦</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
     <t>日</t>
   </si>
   <si>
@@ -71,32 +81,6 @@
   </si>
   <si>
     <t>四</t>
-  </si>
-  <si>
-    <t>五</t>
-  </si>
-  <si>
-    <t>六</t>
-  </si>
-  <si>
-    <t>瑞鑫时代大厦</t>
-  </si>
-  <si>
-    <t>2022年6月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚(法)</t>
-  </si>
-  <si>
-    <t>夜</t>
-  </si>
-  <si>
-    <t>早(法)</t>
-  </si>
-  <si>
-    <t>中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -119,7 +103,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -434,20 +418,21 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="24"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="28" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="28" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="30" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -543,119 +528,122 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:32" ht="18" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>1</v>
@@ -667,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>1</v>
@@ -688,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" s="1" t="s">
         <v>1</v>
@@ -709,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB3" s="1" t="s">
         <v>1</v>
@@ -730,7 +718,10 @@
         <v>1</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -738,441 +729,453 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC6" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="1" t="s">
         <v>1</v>
@@ -1184,16 +1187,16 @@
         <v>1</v>
       </c>
       <c r="X8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB8" s="1" t="s">
         <v>1</v>
@@ -1205,27 +1208,30 @@
         <v>1</v>
       </c>
       <c r="AE8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>1</v>
@@ -1237,16 +1243,16 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>1</v>
@@ -1258,49 +1264,52 @@
         <v>1</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
